--- a/data/trans_camb/P36_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P36_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,48</t>
+          <t>-2,34; 1,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,0</t>
+          <t>-4,27; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,36</t>
+          <t>-1,49; 3,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,88</t>
+          <t>-1,63; 2,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,89</t>
+          <t>-1,54; 2,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,74</t>
+          <t>-2,01; 1,9</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 1,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 1,15</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 2,39</t>
         </is>
       </c>
     </row>
@@ -677,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>66,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>67,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,08%</t>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,19%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 598,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,44; 320,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,96; 334,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,38; 171,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-76,74; 529,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-68,01; 816,67</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 3,22</t>
+          <t>-2,51; 5,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,09</t>
+          <t>-2,38; 5,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>-4,9; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,83</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,35</t>
+          <t>0,0; 4,54</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 3,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 3,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 1,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,95%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-42,92%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11,93%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,43%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119,31%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84,54%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
         </is>
       </c>
     </row>
@@ -871,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,08; 225,36</t>
+          <t>-84,81; 1058,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 173,91</t>
+          <t>-82,33; 835,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,22; 228,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-87,48; 214,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-74,28; 1100,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-72,99; 1144,88</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 2,96</t>
+          <t>0,0; 15,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 10,22</t>
+          <t>-10,11; 6,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,68</t>
+          <t>-10,22; 7,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 3,2</t>
+          <t>-10,5; 5,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 3,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 3,1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 5,36</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>120,89%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-72,39%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,66%</t>
+          <t>-21,13%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-10,9%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59,58%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,3</t>
+          <t>-1,32; 2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,3</t>
+          <t>-1,82; 1,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,03</t>
+          <t>-1,63; 2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,54</t>
+          <t>-1,01; 2,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,09</t>
+          <t>-0,94; 2,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,62</t>
+          <t>-1,09; 1,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 1,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 1,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 1,42</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,74%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-52,75%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,86%</t>
+          <t>38,63%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52,49%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 115,28</t>
+          <t>-67,81; 585,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,85; 38,43</t>
+          <t>-83,6; 467,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 479,51</t>
+          <t>-75,53; 401,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,7; 417,21</t>
+          <t>-79,55; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,07; 119,93</t>
+          <t>-76,63; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 77,01</t>
+          <t>-83,65; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-42,64; 342,99</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-59,05; 229,32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-61,04; 214,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
